--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N2">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O2">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P2">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q2">
-        <v>1800.184525995962</v>
+        <v>1856.763197587419</v>
       </c>
       <c r="R2">
-        <v>1800.184525995962</v>
+        <v>7427.052790349676</v>
       </c>
       <c r="S2">
-        <v>0.006463769099964067</v>
+        <v>0.005467295211557537</v>
       </c>
       <c r="T2">
-        <v>0.006463769099964067</v>
+        <v>0.002731305355635708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N3">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O3">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P3">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q3">
-        <v>1863.244294579502</v>
+        <v>2064.698207298408</v>
       </c>
       <c r="R3">
-        <v>1863.244294579502</v>
+        <v>12388.18924379045</v>
       </c>
       <c r="S3">
-        <v>0.006690192434758407</v>
+        <v>0.00607956611631546</v>
       </c>
       <c r="T3">
-        <v>0.006690192434758407</v>
+        <v>0.004555767756512807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N4">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O4">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P4">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q4">
-        <v>2249.770916076653</v>
+        <v>2389.151728780234</v>
       </c>
       <c r="R4">
-        <v>2249.770916076653</v>
+        <v>14334.9103726814</v>
       </c>
       <c r="S4">
-        <v>0.008078060620640365</v>
+        <v>0.00703492929169262</v>
       </c>
       <c r="T4">
-        <v>0.008078060620640365</v>
+        <v>0.005271676205713249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N5">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O5">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P5">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q5">
-        <v>3133.922673120496</v>
+        <v>3232.99985646209</v>
       </c>
       <c r="R5">
-        <v>3133.922673120496</v>
+        <v>19397.99913877254</v>
       </c>
       <c r="S5">
-        <v>0.01125270895492549</v>
+        <v>0.009519665543332802</v>
       </c>
       <c r="T5">
-        <v>0.01125270895492549</v>
+        <v>0.007133631661429436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N6">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O6">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P6">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q6">
-        <v>1395.790300499585</v>
+        <v>1449.694382699552</v>
       </c>
       <c r="R6">
-        <v>1395.790300499585</v>
+        <v>8698.166296197312</v>
       </c>
       <c r="S6">
-        <v>0.005011745231732434</v>
+        <v>0.004268668814124295</v>
       </c>
       <c r="T6">
-        <v>0.005011745231732434</v>
+        <v>0.003198758492720394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N7">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O7">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P7">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q7">
-        <v>1041.415191334808</v>
+        <v>1083.256794974079</v>
       </c>
       <c r="R7">
-        <v>1041.415191334808</v>
+        <v>4333.027179896316</v>
       </c>
       <c r="S7">
-        <v>0.003739320740055176</v>
+        <v>0.003189682289989544</v>
       </c>
       <c r="T7">
-        <v>0.003739320740055176</v>
+        <v>0.001593474649586905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N8">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O8">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P8">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q8">
-        <v>4425.67443106902</v>
+        <v>4883.277000791039</v>
       </c>
       <c r="R8">
-        <v>4425.67443106902</v>
+        <v>29299.66200474623</v>
       </c>
       <c r="S8">
-        <v>0.01589089186188747</v>
+        <v>0.01437895634608888</v>
       </c>
       <c r="T8">
-        <v>0.01589089186188747</v>
+        <v>0.01077497710206954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N9">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O9">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P9">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q9">
-        <v>4580.704096872253</v>
+        <v>5430.144933061722</v>
       </c>
       <c r="R9">
-        <v>4580.704096872253</v>
+        <v>48871.3043975555</v>
       </c>
       <c r="S9">
-        <v>0.01644754366559203</v>
+        <v>0.01598922545921153</v>
       </c>
       <c r="T9">
-        <v>0.01644754366559203</v>
+        <v>0.01797246622662847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N10">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O10">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P10">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q10">
-        <v>5530.962784792599</v>
+        <v>6283.455910647094</v>
       </c>
       <c r="R10">
-        <v>5530.962784792599</v>
+        <v>56551.10319582384</v>
       </c>
       <c r="S10">
-        <v>0.01985955652052628</v>
+        <v>0.0185018253576713</v>
       </c>
       <c r="T10">
-        <v>0.01985955652052628</v>
+        <v>0.02079671915440756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N11">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O11">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P11">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q11">
-        <v>7704.610967980273</v>
+        <v>8502.771846800755</v>
       </c>
       <c r="R11">
-        <v>7704.610967980273</v>
+        <v>76524.94662120679</v>
       </c>
       <c r="S11">
-        <v>0.02766428973414408</v>
+        <v>0.0250366680378968</v>
       </c>
       <c r="T11">
-        <v>0.02766428973414408</v>
+        <v>0.02814211807108996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N12">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O12">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P12">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q12">
-        <v>3431.489025069541</v>
+        <v>3812.688255783562</v>
       </c>
       <c r="R12">
-        <v>3431.489025069541</v>
+        <v>34314.19430205205</v>
       </c>
       <c r="S12">
-        <v>0.0123211550853871</v>
+        <v>0.01122657551113257</v>
       </c>
       <c r="T12">
-        <v>0.0123211550853871</v>
+        <v>0.01261907587263917</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N13">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O13">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P13">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q13">
-        <v>2560.273415230794</v>
+        <v>2848.959414814381</v>
       </c>
       <c r="R13">
-        <v>2560.273415230794</v>
+        <v>17093.75648888629</v>
       </c>
       <c r="S13">
-        <v>0.009192955471979987</v>
+        <v>0.0083888468851468</v>
       </c>
       <c r="T13">
-        <v>0.009192955471979987</v>
+        <v>0.006286244350745971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N14">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O14">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P14">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q14">
-        <v>23129.40081773084</v>
+        <v>30778.96117367087</v>
       </c>
       <c r="R14">
-        <v>23129.40081773084</v>
+        <v>184673.7670420252</v>
       </c>
       <c r="S14">
-        <v>0.08304876758321139</v>
+        <v>0.09062957907619953</v>
       </c>
       <c r="T14">
-        <v>0.08304876758321139</v>
+        <v>0.06791394422599177</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N15">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O15">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P15">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q15">
-        <v>23939.61479412036</v>
+        <v>34225.83237343252</v>
       </c>
       <c r="R15">
-        <v>23939.61479412036</v>
+        <v>308032.4913608926</v>
       </c>
       <c r="S15">
-        <v>0.08595793383218142</v>
+        <v>0.1007789952375058</v>
       </c>
       <c r="T15">
-        <v>0.08595793383218142</v>
+        <v>0.1132792262439547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N16">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O16">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P16">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q16">
-        <v>28905.84410352115</v>
+        <v>39604.19314303719</v>
       </c>
       <c r="R16">
-        <v>28905.84410352115</v>
+        <v>356437.7382873347</v>
       </c>
       <c r="S16">
-        <v>0.1037897500098485</v>
+        <v>0.1166157406662691</v>
       </c>
       <c r="T16">
-        <v>0.1037897500098485</v>
+        <v>0.1310802994156502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N17">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O17">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P17">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q17">
-        <v>40265.73531303702</v>
+        <v>53592.3898027633</v>
       </c>
       <c r="R17">
-        <v>40265.73531303702</v>
+        <v>482331.5082248697</v>
       </c>
       <c r="S17">
-        <v>0.1445787428706764</v>
+        <v>0.157804407436171</v>
       </c>
       <c r="T17">
-        <v>0.1445787428706764</v>
+        <v>0.1773778467440259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N18">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O18">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P18">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q18">
-        <v>17933.60227885232</v>
+        <v>24031.1134865099</v>
       </c>
       <c r="R18">
-        <v>17933.60227885232</v>
+        <v>216280.0213785891</v>
       </c>
       <c r="S18">
-        <v>0.06439265674554011</v>
+        <v>0.0707603381324589</v>
       </c>
       <c r="T18">
-        <v>0.06439265674554011</v>
+        <v>0.07953717273639219</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N19">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O19">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P19">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q19">
-        <v>13380.46685226904</v>
+        <v>17956.79647083944</v>
       </c>
       <c r="R19">
-        <v>13380.46685226904</v>
+        <v>107740.7788250367</v>
       </c>
       <c r="S19">
-        <v>0.04804410155394485</v>
+        <v>0.052874328556004</v>
       </c>
       <c r="T19">
-        <v>0.04804410155394485</v>
+        <v>0.03962176849039605</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N20">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O20">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P20">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q20">
-        <v>10374.96100539876</v>
+        <v>10648.21417686873</v>
       </c>
       <c r="R20">
-        <v>10374.96100539876</v>
+        <v>63889.28506121237</v>
       </c>
       <c r="S20">
-        <v>0.0372524879486599</v>
+        <v>0.03135398765791864</v>
       </c>
       <c r="T20">
-        <v>0.0372524879486599</v>
+        <v>0.02349534214731359</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N21">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O21">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P21">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q21">
-        <v>10738.3918818539</v>
+        <v>11840.68531220189</v>
       </c>
       <c r="R21">
-        <v>10738.3918818539</v>
+        <v>106566.167809817</v>
       </c>
       <c r="S21">
-        <v>0.03855742821188318</v>
+        <v>0.03486525486560498</v>
       </c>
       <c r="T21">
-        <v>0.03855742821188318</v>
+        <v>0.03918980423119127</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N22">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O22">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P22">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q22">
-        <v>12966.05163987943</v>
+        <v>13701.36985811857</v>
       </c>
       <c r="R22">
-        <v>12966.05163987943</v>
+        <v>123312.3287230671</v>
       </c>
       <c r="S22">
-        <v>0.04655609618243051</v>
+        <v>0.04034409660553583</v>
       </c>
       <c r="T22">
-        <v>0.04655609618243051</v>
+        <v>0.04534821999580361</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N23">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O23">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P23">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q23">
-        <v>18061.66260071114</v>
+        <v>18540.6921841865</v>
       </c>
       <c r="R23">
-        <v>18061.66260071114</v>
+        <v>166866.2296576785</v>
       </c>
       <c r="S23">
-        <v>0.06485247202525682</v>
+        <v>0.05459362708679095</v>
       </c>
       <c r="T23">
-        <v>0.06485247202525682</v>
+        <v>0.06136520630780346</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N24">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O24">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P24">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q24">
-        <v>8044.325306809958</v>
+        <v>8313.745284291457</v>
       </c>
       <c r="R24">
-        <v>8044.325306809958</v>
+        <v>74823.70755862311</v>
       </c>
       <c r="S24">
-        <v>0.02888407304770589</v>
+        <v>0.02448007362596151</v>
       </c>
       <c r="T24">
-        <v>0.02888407304770589</v>
+        <v>0.0275164858729603</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N25">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O25">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P25">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q25">
-        <v>6001.963601231816</v>
+        <v>6212.289416561046</v>
       </c>
       <c r="R25">
-        <v>6001.963601231816</v>
+        <v>37273.73649936628</v>
       </c>
       <c r="S25">
-        <v>0.02155073899620793</v>
+        <v>0.01829227347036249</v>
       </c>
       <c r="T25">
-        <v>0.02155073899620793</v>
+        <v>0.0137074501823327</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N26">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O26">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P26">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q26">
-        <v>895.3362539472412</v>
+        <v>926.8580337226928</v>
       </c>
       <c r="R26">
-        <v>895.3362539472412</v>
+        <v>5561.148202336157</v>
       </c>
       <c r="S26">
-        <v>0.003214807553764486</v>
+        <v>0.002729161422495898</v>
       </c>
       <c r="T26">
-        <v>0.003214807553764486</v>
+        <v>0.002045117262160931</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N27">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O27">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P27">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q27">
-        <v>926.6995370790805</v>
+        <v>1030.654917726671</v>
       </c>
       <c r="R27">
-        <v>926.6995370790805</v>
+        <v>9275.894259540037</v>
       </c>
       <c r="S27">
-        <v>0.003327421020580532</v>
+        <v>0.003034794476633823</v>
       </c>
       <c r="T27">
-        <v>0.003327421020580532</v>
+        <v>0.003411218471788915</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N28">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O28">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P28">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q28">
-        <v>1118.94166134169</v>
+        <v>1192.615448474906</v>
       </c>
       <c r="R28">
-        <v>1118.94166134169</v>
+        <v>10733.53903627415</v>
       </c>
       <c r="S28">
-        <v>0.004017688426269194</v>
+        <v>0.003511692142082867</v>
       </c>
       <c r="T28">
-        <v>0.004017688426269194</v>
+        <v>0.003947268651812054</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N29">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O29">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P29">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q29">
-        <v>1558.681649460153</v>
+        <v>1613.847093630323</v>
       </c>
       <c r="R29">
-        <v>1558.681649460153</v>
+        <v>14524.62384267291</v>
       </c>
       <c r="S29">
-        <v>0.005596625310890024</v>
+        <v>0.004752021420208968</v>
       </c>
       <c r="T29">
-        <v>0.005596625310890024</v>
+        <v>0.005341443505239825</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N30">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O30">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P30">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q30">
-        <v>694.2075331159665</v>
+        <v>723.6576461627538</v>
       </c>
       <c r="R30">
-        <v>694.2075331159665</v>
+        <v>6512.918815464785</v>
       </c>
       <c r="S30">
-        <v>0.002492631803417319</v>
+        <v>0.002130831755397472</v>
       </c>
       <c r="T30">
-        <v>0.002492631803417319</v>
+        <v>0.002395131762711224</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N31">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O31">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P31">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q31">
-        <v>517.9562221253909</v>
+        <v>540.7395322736895</v>
       </c>
       <c r="R31">
-        <v>517.9562221253909</v>
+        <v>3244.437193642137</v>
       </c>
       <c r="S31">
-        <v>0.00185978124762291</v>
+        <v>0.001592223854577241</v>
       </c>
       <c r="T31">
-        <v>0.00185978124762291</v>
+        <v>0.001193144701291566</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H32">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I32">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J32">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N32">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O32">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P32">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q32">
-        <v>3030.311249739433</v>
+        <v>3121.147485497081</v>
       </c>
       <c r="R32">
-        <v>3030.311249739433</v>
+        <v>12484.58994198832</v>
       </c>
       <c r="S32">
-        <v>0.01088068025054404</v>
+        <v>0.009190312864987529</v>
       </c>
       <c r="T32">
-        <v>0.01088068025054404</v>
+        <v>0.004591219200134829</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H33">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I33">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J33">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N33">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O33">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P33">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q33">
-        <v>3136.461882291364</v>
+        <v>3470.67823532535</v>
       </c>
       <c r="R33">
-        <v>3136.461882291364</v>
+        <v>20824.0694119521</v>
       </c>
       <c r="S33">
-        <v>0.0112618262768111</v>
+        <v>0.01021951669523968</v>
       </c>
       <c r="T33">
-        <v>0.0112618262768111</v>
+        <v>0.007658070289320866</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H34">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I34">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J34">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N34">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O34">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P34">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q34">
-        <v>3787.115163959011</v>
+        <v>4016.072119720237</v>
       </c>
       <c r="R34">
-        <v>3787.115163959011</v>
+        <v>24096.43271832142</v>
       </c>
       <c r="S34">
-        <v>0.01359807154283833</v>
+        <v>0.0118254454299536</v>
       </c>
       <c r="T34">
-        <v>0.01359807154283833</v>
+        <v>0.008861484843730071</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H35">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I35">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J35">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N35">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O35">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P35">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q35">
-        <v>5275.43759821865</v>
+        <v>5434.548350441437</v>
       </c>
       <c r="R35">
-        <v>5275.43759821865</v>
+        <v>32607.29010264863</v>
       </c>
       <c r="S35">
-        <v>0.01894206401829212</v>
+        <v>0.01600219145443693</v>
       </c>
       <c r="T35">
-        <v>0.01894206401829212</v>
+        <v>0.0119913603153396</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H36">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I36">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J36">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N36">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O36">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P36">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q36">
-        <v>2349.580828410345</v>
+        <v>2436.8804719854</v>
       </c>
       <c r="R36">
-        <v>2349.580828410345</v>
+        <v>14621.2828319124</v>
       </c>
       <c r="S36">
-        <v>0.00843643956340775</v>
+        <v>0.007175468014949481</v>
       </c>
       <c r="T36">
-        <v>0.00843643956340775</v>
+        <v>0.005376989935625132</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H37">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I37">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J37">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N37">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O37">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P37">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q37">
-        <v>1753.04927043823</v>
+        <v>1820.912987813456</v>
       </c>
       <c r="R37">
-        <v>1753.04927043823</v>
+        <v>7283.651951253824</v>
       </c>
       <c r="S37">
-        <v>0.006294524556422389</v>
+        <v>0.005361733188093696</v>
       </c>
       <c r="T37">
-        <v>0.006294524556422389</v>
+        <v>0.002678569567849997</v>
       </c>
     </row>
   </sheetData>
